--- a/ImportPaymentNewData.xlsx
+++ b/ImportPaymentNewData.xlsx
@@ -2566,8 +2566,8 @@
   <sheetPr/>
   <dimension ref="A1:I1468"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>

--- a/ImportPaymentNewData.xlsx
+++ b/ImportPaymentNewData.xlsx
@@ -2418,7 +2418,7 @@
   <dimension ref="A1:K1246"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="I1246" sqref="I1246"/>
+      <selection activeCell="A1" sqref="A1:K1246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
